--- a/StructureDefinition-ext-R5-EvidenceVariable.cha.definitionId.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceVariable.cha.definitionId.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `EvidenceVariable.characteristic.definitionId` 0..1 `id`
 Following are the generation technical comments:
 Element `EvidenceVariable.characteristic.definitionId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionId` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:EvidenceVariable.characteristic</t>
   </si>
   <si>
     <t>ID</t>
